--- a/Tavisca/MoguCredentials.xlsx
+++ b/Tavisca/MoguCredentials.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MoguTrip\dailyRecord\Tavisca\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="18195" windowHeight="7245" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="18195" windowHeight="7245" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Bonotel" sheetId="1" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>User</t>
   </si>
@@ -192,17 +197,62 @@
   </si>
   <si>
     <t>xdr275FGv</t>
+  </si>
+  <si>
+    <t>UrlListado</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UrlGeneric</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.asiantrails.travel/xml_main/xml_main.php</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>url avail</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://parsysxml.abreuonline.com/NewAvailabilityServlet/hotelavail/OTA2014Compact</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>UrlReservation</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://parsysxml.abreuonline.com/NewAvailabilityServlet/hotelres/OTA2014Compact</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test: UrlGeneric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://test.xtravelsystem.com/public/v1_0rc1/hotelBookingHandler?WSDL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Live: UrlGeneric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  http://live.xtravelsystem.com/public/v1_0rc1/hotelBookingHandler?WSDL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://xtghubstatic.blob.core.windows.net/int-static-hotel/ATR_Listado_Hoteles_</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,7 +260,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -224,7 +274,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -234,6 +284,20 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -278,7 +342,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -299,10 +363,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -310,12 +382,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +467,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -607,18 +682,18 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.75" customWidth="1"/>
+    <col min="2" max="2" width="77.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -626,7 +701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -634,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -642,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
@@ -650,7 +725,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -658,12 +733,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
@@ -671,7 +746,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
@@ -679,7 +754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>45</v>
       </c>
@@ -687,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>46</v>
       </c>
@@ -695,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -703,16 +778,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B6" r:id="rId1"/>
     <hyperlink ref="B13" r:id="rId2"/>
@@ -728,24 +804,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.85546875" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="83.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -753,7 +829,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -761,7 +837,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -769,12 +845,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
@@ -782,7 +858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -790,12 +866,30 @@
         <v>24</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B11" r:id="rId2" display="http://xtghubstatic.blob.core.windows.net/int-static-hotel/ATR_Listado_Hoteles_"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -803,22 +897,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -826,7 +920,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>36</v>
       </c>
@@ -834,7 +928,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -842,7 +936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>0</v>
       </c>
@@ -850,12 +944,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>32</v>
       </c>
@@ -863,7 +957,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
@@ -871,7 +965,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>23</v>
       </c>
@@ -879,7 +973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
@@ -888,6 +982,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B5" r:id="rId1"/>
     <hyperlink ref="B13" r:id="rId2"/>
@@ -898,24 +993,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="59.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>37</v>
       </c>
@@ -923,7 +1018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -931,7 +1026,7 @@
         <v>17238</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -939,7 +1034,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
@@ -947,12 +1042,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.15">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
@@ -960,7 +1055,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="8" t="s">
         <v>43</v>
       </c>
@@ -968,7 +1063,7 @@
         <v>14644046</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>2</v>
       </c>
@@ -976,7 +1071,24 @@
         <v>44</v>
       </c>
     </row>
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
   </hyperlinks>
@@ -986,22 +1098,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" customWidth="1"/>
+    <col min="2" max="2" width="30.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
@@ -1009,7 +1123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1017,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
         <v>52</v>
       </c>
@@ -1025,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="8" t="s">
         <v>53</v>
       </c>
@@ -1033,7 +1147,7 @@
         <v>116884</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
         <v>55</v>
       </c>
@@ -1041,7 +1155,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -1049,7 +1163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="8" t="s">
         <v>30</v>
       </c>
@@ -1057,52 +1171,69 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B13" s="8" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="8" t="s">
         <v>51</v>
-      </c>
-      <c r="B13" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B16" s="8">
         <v>146804</v>
       </c>
     </row>
+    <row r="17" spans="1:2" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" display="http://test.xtravelsystem.com/"/>
   </hyperlinks>
